--- a/docs/examples/tables.xlsx
+++ b/docs/examples/tables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\load-testing-locust\docs\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90F7664-7636-4F69-88EE-65B7432CC18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04199064-313F-40A0-B78A-FC523A0745F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-12555" windowWidth="38640" windowHeight="16440" xr2:uid="{38BC4799-647B-47D1-A185-17CD181A1B26}"/>
+    <workbookView xWindow="-38520" yWindow="-12555" windowWidth="38640" windowHeight="16440" activeTab="2" xr2:uid="{38BC4799-647B-47D1-A185-17CD181A1B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Rules" sheetId="2" r:id="rId2"/>
+    <sheet name="Diagramas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="160">
   <si>
     <t>Plataforma</t>
   </si>
@@ -85,26 +86,6 @@
     </r>
   </si>
   <si>
-    <t>Heroku (Optimizado)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Media </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚡</t>
-    </r>
-  </si>
-  <si>
-    <t>450 €/mes</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Fácil </t>
     </r>
@@ -174,12 +155,6 @@
   </si>
   <si>
     <t>280 €/mes</t>
-  </si>
-  <si>
-    <t>Render (Autoscaling)</t>
-  </si>
-  <si>
-    <t>320 €/mes</t>
   </si>
   <si>
     <t>Jotelulu          (Redis + VM)</t>
@@ -240,21 +215,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Fácil </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-  </si>
-  <si>
     <t>Redis</t>
   </si>
   <si>
@@ -265,15 +225,6 @@
   </si>
   <si>
     <t>AWS ECS</t>
-  </si>
-  <si>
-    <t>Render</t>
-  </si>
-  <si>
-    <t>25 conexiones.</t>
-  </si>
-  <si>
-    <t>100 MB.</t>
   </si>
   <si>
     <t>Recurso</t>
@@ -390,64 +341,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sin clustering </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Evaluar particionado </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🔄</t>
-    </r>
-  </si>
-  <si>
     <t>Infraestructura Principal</t>
   </si>
   <si>
     <t>4 Dynos Standard 2X</t>
   </si>
   <si>
-    <t>Premium 0</t>
-  </si>
-  <si>
-    <t>Standard 0</t>
-  </si>
-  <si>
-    <t>2x servicios Standard (2GB RAM)</t>
-  </si>
-  <si>
     <t>AWS EC2 (AutoScaling, t3.medium)</t>
-  </si>
-  <si>
-    <t>Jotelulu (VMs Dedicadas)</t>
-  </si>
-  <si>
-    <t>1x VM (2 vCPU, 4GB RAM)</t>
-  </si>
-  <si>
-    <t>VM (1GB RAM)</t>
-  </si>
-  <si>
-    <t>VM (100GB SSD)</t>
   </si>
   <si>
     <t>2x Fargate (CPU 0.5vCPU, 1GB RAM)</t>
@@ -630,9 +530,6 @@
   </si>
   <si>
     <t>(Usuarios simultaneos​)</t>
-  </si>
-  <si>
-    <t>200 conexiones=</t>
   </si>
   <si>
     <t>Resultado</t>
@@ -685,12 +582,254 @@
       <t>RPS alcanzado</t>
     </r>
   </si>
+  <si>
+    <t>Premium 1</t>
+  </si>
+  <si>
+    <t>Standard 2</t>
+  </si>
+  <si>
+    <t>Versión</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Cambios Relevantes</t>
+  </si>
+  <si>
+    <t>Oscar Macias</t>
+  </si>
+  <si>
+    <t>Análisis inicial de infraestructura Heroku</t>
+  </si>
+  <si>
+    <t>Actualización de stack</t>
+  </si>
+  <si>
+    <t>Escenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuarios Simultáneos	</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Conexiones Necesarias</t>
+  </si>
+  <si>
+    <t>Con buen caching</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin caching / alta carga	</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>Standard 0 - Heroku</t>
+  </si>
+  <si>
+    <t>Standard 2 - Heroku</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>RDS - AWS</t>
+  </si>
+  <si>
+    <t>Heroku Enterprise / PgBouncer</t>
+  </si>
+  <si>
+    <r>
+      <t>Latencia</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 🚀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Estimado (€ / mes)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 💰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Uso</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 🔧</t>
+    </r>
+  </si>
+  <si>
+    <t>1.1K</t>
+  </si>
+  <si>
+    <t>1.3K</t>
+  </si>
+  <si>
+    <t>Heroku Premium-4</t>
+  </si>
+  <si>
+    <t>Alta (con costo elevado)</t>
+  </si>
+  <si>
+    <t>Variable (optimizable con región / CDN)</t>
+  </si>
+  <si>
+    <t>Alta (autoscaling real)</t>
+  </si>
+  <si>
+    <t>AWS Aurora Serverless v2 (32 ACUs) + ECS Spot Fargate (App + DB + Redis)</t>
+  </si>
+  <si>
+    <t>Entorno dedicado, seguro y compliant (HIPAA/PCI). Costo elevado pero manejo sencillo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Requiere PgBouncer para multiplexar conexiones. Fácil de administrar.</t>
+  </si>
+  <si>
+    <t>Requiere gestión de infraestructura y observabilidad.</t>
+  </si>
+  <si>
+    <t>Heroku Shield-3 + PgBouncer (Enterprise)</t>
+  </si>
+  <si>
+    <t>Baja (Private Space)</t>
+  </si>
+  <si>
+    <r>
+      <t>Escalabilidad (ms)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 🔄</t>
+    </r>
+  </si>
+  <si>
+    <t>Media (limitada por conexiones)</t>
+  </si>
+  <si>
+    <t>Fase</t>
+  </si>
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>1️⃣</t>
+  </si>
+  <si>
+    <t>2️⃣</t>
+  </si>
+  <si>
+    <t>Migración de PostgreSQL a Aurora</t>
+  </si>
+  <si>
+    <t>3️⃣</t>
+  </si>
+  <si>
+    <t>Migración Redis a ElastiCache</t>
+  </si>
+  <si>
+    <t>4️⃣</t>
+  </si>
+  <si>
+    <t>Migración de App y Workers (Puma + Sidekiq)</t>
+  </si>
+  <si>
+    <t>5️⃣</t>
+  </si>
+  <si>
+    <t>Configuración de variables y secretos</t>
+  </si>
+  <si>
+    <t>6️⃣</t>
+  </si>
+  <si>
+    <t>Implementación de CI/CD</t>
+  </si>
+  <si>
+    <t>7️⃣</t>
+  </si>
+  <si>
+    <t>Monitoreo y logging (CloudWatch, alertas)</t>
+  </si>
+  <si>
+    <t>8️⃣</t>
+  </si>
+  <si>
+    <t>Validaciones y pruebas finales</t>
+  </si>
+  <si>
+    <t>9️⃣</t>
+  </si>
+  <si>
+    <t>Cut-over y cambio a producción</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Infraestructura base</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,8 +897,34 @@
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,12 +940,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,12 +975,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -835,6 +988,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,109 +1133,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1076,7 +1211,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,10 +1220,140 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1099,9 +1364,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFFED9D6"/>
       <color rgb="FFEAD5FF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF9999FF"/>
       <color rgb="FFFFFFFF"/>
     </mruColors>
@@ -1115,6 +1380,1158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Migracion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> hacia AWS</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35045432974750623"/>
+          <c:y val="0.33466790609507147"/>
+          <c:w val="0.62881540088364074"/>
+          <c:h val="0.61440616797900249"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagramas!$B$2:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Infraestructura base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Migración de PostgreSQL a Aurora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Migración Redis a ElastiCache</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Migración de App y Workers (Puma + Sidekiq)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Configuración de variables y secretos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Implementación de CI/CD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Monitoreo y logging (CloudWatch, alertas)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Validaciones y pruebas finales</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Cut-over y cambio a producción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagramas!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45790</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E905-4C2E-ABBF-D7F69B9F4AC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E905-4C2E-ABBF-D7F69B9F4AC1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-E905-4C2E-ABBF-D7F69B9F4AC1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E905-4C2E-ABBF-D7F69B9F4AC1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-E905-4C2E-ABBF-D7F69B9F4AC1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E905-4C2E-ABBF-D7F69B9F4AC1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-E905-4C2E-ABBF-D7F69B9F4AC1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagramas!$B$2:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Infraestructura base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Migración de PostgreSQL a Aurora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Migración Redis a ElastiCache</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Migración de App y Workers (Puma + Sidekiq)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Configuración de variables y secretos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Implementación de CI/CD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Monitoreo y logging (CloudWatch, alertas)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Validaciones y pruebas finales</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Cut-over y cambio a producción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagramas!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E905-4C2E-ABBF-D7F69B9F4AC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1669221824"/>
+        <c:axId val="1669223072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1669221824"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669223072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1669223072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45799"/>
+          <c:min val="45783"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="dd\-mmmm" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669221824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABAB391F-E19F-47F1-95DB-EEE6D9E20E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,10 +2834,10 @@
   <sheetPr codeName="Hoja1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,15 +2848,18 @@
     <col min="4" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="41" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="41" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="42" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="42" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1459,526 +2879,635 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="61">
+        <v>850</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36">
+        <v>45740</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="35">
+        <v>2</v>
+      </c>
+      <c r="H8" s="38">
+        <v>45765</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="64"/>
+    </row>
+    <row r="10" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="24">
+        <v>100</v>
+      </c>
+      <c r="N10" s="24">
+        <v>250</v>
+      </c>
+      <c r="O10" s="24">
+        <v>500</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18"/>
+      <c r="G11" s="22">
+        <v>200</v>
+      </c>
+      <c r="H11" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="25">
+        <v>2</v>
+      </c>
+      <c r="N11" s="25">
+        <v>3</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="18"/>
+      <c r="G12" s="22">
+        <v>400</v>
+      </c>
+      <c r="H12" s="23">
+        <v>5.8</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="8">
+        <v>100</v>
+      </c>
+      <c r="N12" s="8">
+        <v>250</v>
+      </c>
+      <c r="O12" s="8">
+        <v>500</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="18"/>
+      <c r="G13" s="22">
+        <v>600</v>
+      </c>
+      <c r="H13" s="23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="8">
+        <v>10</v>
+      </c>
+      <c r="N13" s="8">
+        <v>15</v>
+      </c>
+      <c r="O13" s="8">
+        <v>20</v>
+      </c>
+      <c r="P13" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18"/>
+      <c r="G14" s="22">
+        <v>800</v>
+      </c>
+      <c r="H14" s="23">
+        <v>11.5</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="18"/>
+      <c r="G15" s="22">
+        <v>997</v>
+      </c>
+      <c r="H15" s="23">
+        <v>13</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="B16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="18"/>
+      <c r="L16" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="42" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="G17" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="70"/>
+      <c r="N18" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="72"/>
+      <c r="M19" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="73"/>
+      <c r="O19" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="D20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="34">
+        <v>93.2</v>
+      </c>
+      <c r="L20" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="70"/>
+      <c r="N20" s="67" t="s">
         <v>110</v>
       </c>
+      <c r="O20" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" s="68" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="34" t="s">
+    <row r="21" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="46">
-        <v>0.9</v>
+      <c r="E21" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="4" t="s">
+    <row r="22" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="G4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="M4" s="46">
-        <v>93.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="G6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="32"/>
-    </row>
-    <row r="14" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="C22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="21"/>
-      <c r="G14" s="25">
-        <v>200</v>
-      </c>
-      <c r="H14" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="27">
-        <v>100</v>
-      </c>
-      <c r="N14" s="27">
-        <v>250</v>
-      </c>
-      <c r="O14" s="27">
-        <v>500</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="D22" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="21"/>
-      <c r="G15" s="25">
-        <v>400</v>
-      </c>
-      <c r="H15" s="26">
-        <v>5.8</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" s="28">
-        <v>2</v>
-      </c>
-      <c r="N15" s="28">
-        <v>3</v>
-      </c>
-      <c r="O15" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="18" t="s">
+      <c r="E22" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="21"/>
-      <c r="G16" s="25">
-        <v>600</v>
-      </c>
-      <c r="H16" s="26">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="10">
-        <v>100</v>
-      </c>
-      <c r="N16" s="10">
-        <v>250</v>
-      </c>
-      <c r="O16" s="10">
-        <v>500</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="21"/>
-      <c r="G17" s="25">
-        <v>800</v>
-      </c>
-      <c r="H17" s="26">
-        <v>11.5</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="10">
-        <v>10</v>
-      </c>
-      <c r="N17" s="10">
-        <v>15</v>
-      </c>
-      <c r="O17" s="10">
-        <v>20</v>
-      </c>
-      <c r="P17" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="21"/>
-      <c r="G18" s="25">
-        <v>997</v>
-      </c>
-      <c r="H18" s="26">
-        <v>13</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="3">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3">
-        <v>15</v>
-      </c>
-      <c r="D24" s="3">
-        <v>20</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A15:A18"/>
+  <mergeCells count="11">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:P9"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1989,10 +3518,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B5"/>
+      <selection activeCell="B4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,41 +3530,270 @@
     <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="39" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>108</v>
+    <row r="1" spans="1:2" s="27" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="39" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42">
-        <v>5</v>
+    <row r="2" spans="1:2" s="27" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450BCB28-E6E1-480F-9CAD-9BEAE41F35C1}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="78">
+        <v>1</v>
+      </c>
+      <c r="D2" s="76">
+        <v>45783</v>
+      </c>
+      <c r="E2" s="76">
+        <f>D2+F2-1</f>
+        <v>45784</v>
+      </c>
+      <c r="F2" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="78">
+        <v>1</v>
+      </c>
+      <c r="D3" s="76">
+        <f>E2+1</f>
+        <v>45785</v>
+      </c>
+      <c r="E3" s="76">
+        <f t="shared" ref="E3:E10" si="0">D3+F3-1</f>
+        <v>45786</v>
+      </c>
+      <c r="F3" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="78">
+        <v>1</v>
+      </c>
+      <c r="D4" s="76">
+        <f t="shared" ref="D4:D10" si="1">E3+1</f>
+        <v>45787</v>
+      </c>
+      <c r="E4" s="76">
+        <f t="shared" si="0"/>
+        <v>45787</v>
+      </c>
+      <c r="F4" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="78">
+        <v>2</v>
+      </c>
+      <c r="D5" s="76">
+        <f>E4+3</f>
+        <v>45790</v>
+      </c>
+      <c r="E5" s="76">
+        <f t="shared" si="0"/>
+        <v>45792</v>
+      </c>
+      <c r="F5" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="78">
+        <v>2</v>
+      </c>
+      <c r="D6" s="76">
+        <f>E5+2</f>
+        <v>45794</v>
+      </c>
+      <c r="E6" s="76">
+        <f t="shared" si="0"/>
+        <v>45794</v>
+      </c>
+      <c r="F6" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="78">
+        <v>2</v>
+      </c>
+      <c r="D7" s="76">
+        <f>E6+1</f>
+        <v>45795</v>
+      </c>
+      <c r="E7" s="76">
+        <f t="shared" si="0"/>
+        <v>45795</v>
+      </c>
+      <c r="F7" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="78">
+        <v>3</v>
+      </c>
+      <c r="D8" s="76">
+        <f>E7+1</f>
+        <v>45796</v>
+      </c>
+      <c r="E8" s="76">
+        <f t="shared" si="0"/>
+        <v>45796</v>
+      </c>
+      <c r="F8" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="78">
+        <v>3</v>
+      </c>
+      <c r="D9" s="76">
+        <f t="shared" si="1"/>
+        <v>45797</v>
+      </c>
+      <c r="E9" s="76">
+        <f t="shared" si="0"/>
+        <v>45797</v>
+      </c>
+      <c r="F9" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="78">
+        <v>3</v>
+      </c>
+      <c r="D10" s="76">
+        <f t="shared" si="1"/>
+        <v>45798</v>
+      </c>
+      <c r="E10" s="76">
+        <f t="shared" si="0"/>
+        <v>45798</v>
+      </c>
+      <c r="F10" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>